--- a/docs/StructureDefinition-PractitioneRolerLE.xlsx
+++ b/docs/StructureDefinition-PractitioneRolerLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T01:53:31-03:00</t>
+    <t>2023-01-17T23:45:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PractitioneRolerLE.xlsx
+++ b/docs/StructureDefinition-PractitioneRolerLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T23:45:39-03:00</t>
+    <t>2023-01-18T13:51:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PractitioneRolerLE.xlsx
+++ b/docs/StructureDefinition-PractitioneRolerLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T13:51:24-03:00</t>
+    <t>2023-01-18T14:20:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PractitioneRolerLE.xlsx
+++ b/docs/StructureDefinition-PractitioneRolerLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T14:20:48-03:00</t>
+    <t>2023-01-19T11:18:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PractitioneRolerLE.xlsx
+++ b/docs/StructureDefinition-PractitioneRolerLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T11:18:06-03:00</t>
+    <t>2023-01-20T14:40:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -542,7 +542,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/corecl/StructureDefinition/CorePrestadorCl)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/CoreCL/StructureDefinition/CorePrestadorCl)
 </t>
   </si>
   <si>
@@ -632,7 +632,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/corecl/StructureDefinition/CoreLocalizacionCl)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/CoreCL/StructureDefinition/CoreLocalizacionCl)
 </t>
   </si>
   <si>
@@ -1181,7 +1181,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.4609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.36328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-PractitioneRolerLE.xlsx
+++ b/docs/StructureDefinition-PractitioneRolerLE.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>PractitionerRoleLE</t>
+    <t>PractitionerRole LE</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T14:40:00-03:00</t>
+    <t>2023-01-25T12:03:32-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PractitioneRolerLE.xlsx
+++ b/docs/StructureDefinition-PractitioneRolerLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T12:03:32-03:00</t>
+    <t>2023-01-25T13:45:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PractitioneRolerLE.xlsx
+++ b/docs/StructureDefinition-PractitioneRolerLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:45:37-03:00</t>
+    <t>2023-01-30T23:51:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PractitioneRolerLE.xlsx
+++ b/docs/StructureDefinition-PractitioneRolerLE.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>PractitioneRolerLE</t>
+    <t>PractitionerRoleLE</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T23:51:40-03:00</t>
+    <t>2023-01-31T15:14:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
